--- a/data_importer/tests/data/test.xlsx
+++ b/data_importer/tests/data/test.xlsx
@@ -867,7 +867,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD41"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>981791</v>
+        <v>1000000</v>
       </c>
       <c r="C2" s="2">
         <v>30256</v>
@@ -905,7 +905,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>985972</v>
+        <f>B2+1</f>
+        <v>1000001</v>
       </c>
       <c r="C3" s="2">
         <v>30257</v>
@@ -916,7 +917,8 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>987386</v>
+        <f t="shared" ref="B4:B10" si="0">B3+1</f>
+        <v>1000002</v>
       </c>
       <c r="C4" s="2">
         <v>30258</v>
@@ -927,7 +929,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>991469</v>
+        <f t="shared" si="0"/>
+        <v>1000003</v>
       </c>
       <c r="C5" s="2">
         <v>30259</v>
@@ -938,7 +941,8 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>992624</v>
+        <f t="shared" si="0"/>
+        <v>1000004</v>
       </c>
       <c r="C6" s="2">
         <v>30260</v>
@@ -949,7 +953,8 @@
         <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>1008997</v>
+        <f t="shared" si="0"/>
+        <v>1000005</v>
       </c>
       <c r="C7" s="2">
         <v>30261</v>
@@ -960,7 +965,8 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>1009094</v>
+        <f t="shared" si="0"/>
+        <v>1000006</v>
       </c>
       <c r="C8" s="2">
         <v>30262</v>
@@ -971,7 +977,8 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1012534</v>
+        <f t="shared" si="0"/>
+        <v>1000007</v>
       </c>
       <c r="C9" s="2">
         <v>30263</v>
@@ -982,7 +989,8 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>1014188</v>
+        <f t="shared" si="0"/>
+        <v>1000008</v>
       </c>
       <c r="C10" s="2">
         <v>30264</v>
